--- a/TestData/TMTT0011418_Verify_the_TAS_Supervisor can_only_enter_hours_more_than_24hours_for_one_day_for_Associates_with_Title_TAG_Outsourced_Contractor.xlsx
+++ b/TestData/TMTT0011418_Verify_the_TAS_Supervisor can_only_enter_hours_more_than_24hours_for_one_day_for_Associates_with_Title_TAG_Outsourced_Contractor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1558F410-C28D-4D0A-82C9-889E3DADEC1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FBAAD0-452D-480D-ACB8-692AB77ADC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2460" windowHeight="0" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Global Search User</t>
   </si>
@@ -51,18 +51,12 @@
     <t>25</t>
   </si>
   <si>
-    <t>E - Project Clear-FVA-105379</t>
-  </si>
-  <si>
     <t>Activity Selection</t>
   </si>
   <si>
     <t>Fieldwork</t>
   </si>
   <si>
-    <t>Engagement Project Bend-FVA-109081</t>
-  </si>
-  <si>
     <t>Weekly Time Entry</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>Rate Sheet</t>
   </si>
   <si>
-    <t>Project Clear-FVA-105379</t>
-  </si>
-  <si>
     <t>TAG Analyst</t>
   </si>
   <si>
@@ -88,13 +79,19 @@
   </si>
   <si>
     <t>25.0d</t>
+  </si>
+  <si>
+    <t>Project Bend-Bernhard Capital Partners Management-FVA-109081</t>
+  </si>
+  <si>
+    <t>Project Clear-LucidHealth-FVA-105379</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +213,14 @@
       <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -462,9 +467,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -812,35 +818,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -864,7 +876,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -909,18 +921,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -932,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,18 +956,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -972,6 +984,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -980,7 +995,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TMTT0011418_Verify_the_TAS_Supervisor can_only_enter_hours_more_than_24hours_for_one_day_for_Associates_with_Title_TAG_Outsourced_Contractor.xlsx
+++ b/TestData/TMTT0011418_Verify_the_TAS_Supervisor can_only_enter_hours_more_than_24hours_for_one_day_for_Associates_with_Title_TAG_Outsourced_Contractor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FBAAD0-452D-480D-ACB8-692AB77ADC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDBC168-4174-4B8E-BCB0-0CC1D3199376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="8" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Coartney Williams</t>
-  </si>
-  <si>
     <t>Staff Member</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Project Clear-LucidHealth-FVA-105379</t>
+  </si>
+  <si>
+    <t>Coartney Trone</t>
   </si>
 </sst>
 </file>
@@ -795,24 +795,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -820,34 +822,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -864,19 +866,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -892,16 +894,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -917,22 +919,22 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -948,26 +950,26 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -983,19 +985,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
